--- a/People_In_Need_2017.xlsx
+++ b/People_In_Need_2017.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Cholera-Methods\Cholera-Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D192659C-8DE7-4885-B596-9803C8F2BFD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1833E491-C24A-436F-B891-F8ABBC2516C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export_Output_2017" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export_Output_2017!$A$1:$AM$334</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="747">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -2267,6 +2268,12 @@
   </si>
   <si>
     <t>Thula</t>
+  </si>
+  <si>
+    <t>PIN FS</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -2276,7 +2283,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2410,6 +2417,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF454545"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2593,7 +2613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2708,6 +2728,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2753,10 +2788,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3114,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM334"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N361" sqref="N361"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q335" sqref="Q335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3126,21 +3166,21 @@
     <col min="8" max="8" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="36.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -42905,5 +42945,367 @@
   </sheetData>
   <autoFilter ref="A1:AM334" xr:uid="{8591CEE9-F290-4392-ACA1-1568AF98CFE2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DABFAE-83F1-46FC-A857-9B0916D36B29}">
+  <dimension ref="A1:AA24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:X24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A2, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="W2" s="5"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A3, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="W3" s="5"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A4, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A5, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A6, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A7, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A8, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A9, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A10, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="AA10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A11, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A12, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A13, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A14, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>612</v>
+      </c>
+      <c r="B15" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A15, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>614</v>
+      </c>
+      <c r="B16" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A16, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>665</v>
+      </c>
+      <c r="B17" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A17, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>610</v>
+      </c>
+      <c r="B18" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A18, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>622</v>
+      </c>
+      <c r="B19" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A19, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>620</v>
+      </c>
+      <c r="B20" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A20, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>608</v>
+      </c>
+      <c r="B21" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A21, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>606</v>
+      </c>
+      <c r="B22" s="4">
+        <f>SUMIF(Export_Output_2017!H:H, A22, Export_Output_2017!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="W22" s="5"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="W24" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>